--- a/data/trans_orig/Q4506_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q4506_R-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>60973</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47460</v>
+        <v>45370</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79399</v>
+        <v>76406</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05846413194780481</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04550777006035335</v>
+        <v>0.04350364973141983</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07613242748455194</v>
+        <v>0.07326276262456298</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -763,19 +763,19 @@
         <v>188824</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>164838</v>
+        <v>162472</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>216241</v>
+        <v>214403</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1690991986008582</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.147618147929481</v>
+        <v>0.14549977342881</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1936523284161666</v>
+        <v>0.1920060533567757</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>233</v>
@@ -784,19 +784,19 @@
         <v>249797</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>219763</v>
+        <v>220244</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>281751</v>
+        <v>281708</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1156706155786281</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1017633190630159</v>
+        <v>0.1019859117182178</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.130467325825793</v>
+        <v>0.1304474903761631</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>65089</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48798</v>
+        <v>50420</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>83663</v>
+        <v>83697</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06241143884755884</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04679044995382054</v>
+        <v>0.04834575064409249</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08022134571102868</v>
+        <v>0.08025366595839145</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -834,19 +834,19 @@
         <v>123313</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104648</v>
+        <v>101930</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>145280</v>
+        <v>145478</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1104316797078942</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09371609064281296</v>
+        <v>0.0912824935520299</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1301034027806535</v>
+        <v>0.1302808472554194</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>176</v>
@@ -855,19 +855,19 @@
         <v>188403</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>161249</v>
+        <v>164128</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>214852</v>
+        <v>214759</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08724144262330247</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07466767051176333</v>
+        <v>0.07600079841035466</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09948897085797315</v>
+        <v>0.09944588918960934</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>127723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>106691</v>
+        <v>108681</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>150549</v>
+        <v>153349</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1224688892833266</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1023014687075295</v>
+        <v>0.1042095615451162</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1443552263434049</v>
+        <v>0.1470401685140009</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>188</v>
@@ -905,19 +905,19 @@
         <v>205809</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>181196</v>
+        <v>180510</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>235177</v>
+        <v>233954</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1843099190936866</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.162267534433832</v>
+        <v>0.1616530274557614</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2106093475572905</v>
+        <v>0.2095149441497506</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>311</v>
@@ -926,19 +926,19 @@
         <v>333533</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>298479</v>
+        <v>300743</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>369628</v>
+        <v>370416</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1544452595841979</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1382132076132749</v>
+        <v>0.1392615955601434</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1711593347499626</v>
+        <v>0.171524613651259</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>103845</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85015</v>
+        <v>84553</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>125256</v>
+        <v>125266</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09957310799718562</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08151738528834927</v>
+        <v>0.08107474935907545</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1201030372687586</v>
+        <v>0.1201122808118136</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -976,19 +976,19 @@
         <v>73888</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57314</v>
+        <v>57518</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92087</v>
+        <v>94051</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06616926482781942</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05132712445528492</v>
+        <v>0.05150976995266614</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08246757974509156</v>
+        <v>0.08422624074075667</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>165</v>
@@ -997,19 +997,19 @@
         <v>177733</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>151543</v>
+        <v>149830</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>206978</v>
+        <v>204339</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08230085910463979</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07017314487868349</v>
+        <v>0.06938008322097271</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09584294485190928</v>
+        <v>0.09462092893601814</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>685275</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>653995</v>
+        <v>651336</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>716750</v>
+        <v>717935</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6570824319241242</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6270895626202887</v>
+        <v>0.6245401728306699</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6872631304696103</v>
+        <v>0.688399055984493</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>478</v>
@@ -1047,19 +1047,19 @@
         <v>524813</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>490806</v>
+        <v>490680</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>556292</v>
+        <v>560003</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4699899377697416</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4395352519248192</v>
+        <v>0.4394222704778295</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4981800594674743</v>
+        <v>0.5015033722723717</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1120</v>
@@ -1068,19 +1068,19 @@
         <v>1210088</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1162853</v>
+        <v>1160330</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1260021</v>
+        <v>1255033</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5603418231092318</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5384694938901264</v>
+        <v>0.537300904447252</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.583463778544468</v>
+        <v>0.5811540414308999</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>71110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54807</v>
+        <v>56084</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90179</v>
+        <v>91943</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07298242419670389</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05624950050967215</v>
+        <v>0.05756085496790418</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09255252627484387</v>
+        <v>0.09436336794755065</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>204</v>
@@ -1193,19 +1193,19 @@
         <v>220287</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>194190</v>
+        <v>192894</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>249251</v>
+        <v>249002</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2019084098695911</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1779884673509815</v>
+        <v>0.1768008575451632</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2284558939645724</v>
+        <v>0.2282275155996858</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>269</v>
@@ -1214,19 +1214,19 @@
         <v>291398</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>259840</v>
+        <v>261385</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>326032</v>
+        <v>327273</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1410869736477416</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1258074346085175</v>
+        <v>0.1265554800955901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1578558366073087</v>
+        <v>0.1584566352635879</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>76158</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60818</v>
+        <v>59379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>91250</v>
+        <v>94867</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07816327965069524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06241897105002684</v>
+        <v>0.06094197639080757</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09365177167438264</v>
+        <v>0.09736425272659267</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>156</v>
@@ -1264,19 +1264,19 @@
         <v>170182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>148639</v>
+        <v>145895</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>197188</v>
+        <v>200537</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1559837752867479</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1362378891541139</v>
+        <v>0.133722573975306</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1807364926736345</v>
+        <v>0.1838058652531804</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>230</v>
@@ -1285,19 +1285,19 @@
         <v>246341</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>217804</v>
+        <v>220798</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>278575</v>
+        <v>279292</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1192715928095093</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1054550697341372</v>
+        <v>0.106904387439914</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1348785122516938</v>
+        <v>0.1352257254344988</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>154640</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>132010</v>
+        <v>133132</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>177400</v>
+        <v>176810</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1587105605467143</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1354855561883989</v>
+        <v>0.1366364550837239</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1820703081603371</v>
+        <v>0.181463924868818</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>197</v>
@@ -1335,19 +1335,19 @@
         <v>204097</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>179672</v>
+        <v>180740</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>228895</v>
+        <v>231257</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1870687759860316</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1646814489665399</v>
+        <v>0.165660633406578</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2097976209273525</v>
+        <v>0.211963024028938</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>347</v>
@@ -1356,19 +1356,19 @@
         <v>358737</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>326617</v>
+        <v>323248</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>397280</v>
+        <v>395024</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1736906553324958</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1581393575920743</v>
+        <v>0.156508197168522</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1923523308201757</v>
+        <v>0.191260162280719</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>149894</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>126802</v>
+        <v>126364</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>173686</v>
+        <v>174766</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1538397001510809</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1301397713272584</v>
+        <v>0.1296908907750975</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1782583540683566</v>
+        <v>0.1793668524271895</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -1406,19 +1406,19 @@
         <v>103710</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85250</v>
+        <v>85434</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124256</v>
+        <v>125527</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09505758884473005</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07813774477840287</v>
+        <v>0.07830627341014186</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1138892403290258</v>
+        <v>0.1150542333454037</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>243</v>
@@ -1427,19 +1427,19 @@
         <v>253604</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>225734</v>
+        <v>225254</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>286235</v>
+        <v>285363</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.122788324546654</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1092941476420155</v>
+        <v>0.109062082367731</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1385873861247788</v>
+        <v>0.1381650846489561</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>522548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>491643</v>
+        <v>489943</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>554375</v>
+        <v>555112</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5363040354548056</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5045854732574515</v>
+        <v>0.5028407708526316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5689687527470857</v>
+        <v>0.5697253050349711</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>361</v>
@@ -1477,19 +1477,19 @@
         <v>392749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>363093</v>
+        <v>361391</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>425708</v>
+        <v>427687</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3599814500128994</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3327998973226847</v>
+        <v>0.3312393737483933</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3901906580061086</v>
+        <v>0.392004665614256</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>849</v>
@@ -1498,19 +1498,19 @@
         <v>915298</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>866293</v>
+        <v>864637</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>960725</v>
+        <v>957267</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4431624536635992</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4194357041976217</v>
+        <v>0.4186337467279722</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4651574260413372</v>
+        <v>0.4634830846955337</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>84936</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68649</v>
+        <v>68171</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105265</v>
+        <v>103579</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09606420192897504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07764325089927614</v>
+        <v>0.07710183762055141</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1190559434061447</v>
+        <v>0.1171498595941471</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>168</v>
@@ -1623,19 +1623,19 @@
         <v>180966</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>158212</v>
+        <v>155955</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>206560</v>
+        <v>205790</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2066304317288894</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1806496584926021</v>
+        <v>0.1780718791929227</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2358539322480542</v>
+        <v>0.2349746186486624</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>247</v>
@@ -1644,19 +1644,19 @@
         <v>265902</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>236720</v>
+        <v>233843</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>299108</v>
+        <v>295172</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1510845191783722</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1345031775379384</v>
+        <v>0.1328685396536173</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1699519025267567</v>
+        <v>0.1677155348473024</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>113307</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92996</v>
+        <v>94483</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>134941</v>
+        <v>134014</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1281521600959779</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1051797328074362</v>
+        <v>0.1068619357197895</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1526201328609394</v>
+        <v>0.1515718477765522</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>141</v>
@@ -1694,19 +1694,19 @@
         <v>150380</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>128247</v>
+        <v>125845</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>173134</v>
+        <v>174387</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1717062106677357</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1464353202419556</v>
+        <v>0.1436917584591882</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1976875522648706</v>
+        <v>0.1991185920538899</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>248</v>
@@ -1715,19 +1715,19 @@
         <v>263687</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>234666</v>
+        <v>236052</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>297305</v>
+        <v>298267</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1498256646035564</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1333359719752154</v>
+        <v>0.1341234470340495</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1689272600801146</v>
+        <v>0.1694737623665082</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>167740</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>143477</v>
+        <v>143781</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>194478</v>
+        <v>195287</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1897160729356617</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1622751019021818</v>
+        <v>0.1626181259762464</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2199570291227424</v>
+        <v>0.2208727887040553</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>159</v>
@@ -1765,19 +1765,19 @@
         <v>169159</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>146180</v>
+        <v>147615</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>193946</v>
+        <v>195410</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1931491808838523</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1669104483572563</v>
+        <v>0.1685496908118826</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2214516281905708</v>
+        <v>0.2231230596119263</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>312</v>
@@ -1786,19 +1786,19 @@
         <v>336899</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>304064</v>
+        <v>301570</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>373163</v>
+        <v>370781</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1914244669796903</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1727679499870085</v>
+        <v>0.1713507274437691</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2120296293381393</v>
+        <v>0.2106758323115839</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>125797</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>104984</v>
+        <v>104979</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>148470</v>
+        <v>148483</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1422782078654997</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1187381092137244</v>
+        <v>0.1187332934104743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1679219926541357</v>
+        <v>0.1679369140444552</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -1836,19 +1836,19 @@
         <v>93646</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>75962</v>
+        <v>76488</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>112388</v>
+        <v>115572</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.106926167407658</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08673471931166682</v>
+        <v>0.08733594636381325</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1283270893765405</v>
+        <v>0.131962058185904</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>211</v>
@@ -1857,19 +1857,19 @@
         <v>219442</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>193191</v>
+        <v>193831</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>250462</v>
+        <v>249275</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1246862135927106</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1097699561718907</v>
+        <v>0.1101339411143756</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1423111826673211</v>
+        <v>0.1416371269196287</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>392382</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>359862</v>
+        <v>363334</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>423191</v>
+        <v>421109</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4437893571738857</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4070095452433896</v>
+        <v>0.4109361636426076</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4786349898695794</v>
+        <v>0.4762801849076984</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>264</v>
@@ -1907,19 +1907,19 @@
         <v>281645</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>254081</v>
+        <v>253388</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>309301</v>
+        <v>309469</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3215880093118647</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2901140009084987</v>
+        <v>0.2893232351290194</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3531657510091903</v>
+        <v>0.3533568863721868</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>632</v>
@@ -1928,19 +1928,19 @@
         <v>674027</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>631119</v>
+        <v>631172</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>718013</v>
+        <v>717432</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3829791356456705</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3585986378300372</v>
+        <v>0.358628912660354</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4079718891790523</v>
+        <v>0.4076417778523188</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>50428</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36984</v>
+        <v>37261</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67037</v>
+        <v>66000</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1006285991740364</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07380138336279482</v>
+        <v>0.07435493029698342</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1337725973628509</v>
+        <v>0.1317037211822155</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>101</v>
@@ -2053,19 +2053,19 @@
         <v>113609</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93921</v>
+        <v>95734</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>134270</v>
+        <v>134203</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2520376221134211</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.208359266970858</v>
+        <v>0.212381970113686</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2978722095782473</v>
+        <v>0.297724358210638</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -2074,19 +2074,19 @@
         <v>164037</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>138993</v>
+        <v>142205</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>189758</v>
+        <v>192208</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.172327715972089</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1460179489639062</v>
+        <v>0.1493920167609789</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1993480022013317</v>
+        <v>0.2019216094778116</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>61535</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>47380</v>
+        <v>47397</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>81220</v>
+        <v>79233</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1227934751286892</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09454696472304217</v>
+        <v>0.09458010055738954</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.162073991281428</v>
+        <v>0.1581105115802998</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>70</v>
@@ -2124,19 +2124,19 @@
         <v>75141</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>59842</v>
+        <v>60649</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>93704</v>
+        <v>92361</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1666973135740754</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1327574968568669</v>
+        <v>0.1345481642773108</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2078789482577311</v>
+        <v>0.2048993291022307</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>123</v>
@@ -2145,19 +2145,19 @@
         <v>136676</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>113863</v>
+        <v>115829</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>159723</v>
+        <v>161681</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1435839562999388</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.119617930511206</v>
+        <v>0.1216832625485629</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1677948033753805</v>
+        <v>0.169852264338667</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>65425</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>50398</v>
+        <v>51441</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>84866</v>
+        <v>85023</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1305558619685108</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1005687138914148</v>
+        <v>0.1026499793682644</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1693503318552762</v>
+        <v>0.1696636224371378</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>69</v>
@@ -2195,19 +2195,19 @@
         <v>73340</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>57348</v>
+        <v>58473</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>90370</v>
+        <v>89497</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1627022995469611</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1272239447202308</v>
+        <v>0.1297192487129253</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2004808076725587</v>
+        <v>0.1985449326020938</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>127</v>
@@ -2216,19 +2216,19 @@
         <v>138766</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>117725</v>
+        <v>115375</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>161802</v>
+        <v>162075</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1457786745713063</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1236751422009443</v>
+        <v>0.1212058673691807</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1699794684057489</v>
+        <v>0.17026603163976</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>59968</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46953</v>
+        <v>46532</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76882</v>
+        <v>75535</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1196656424582548</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.093695353117353</v>
+        <v>0.09285519620802037</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1534191241619279</v>
+        <v>0.1507305427604966</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -2266,19 +2266,19 @@
         <v>34151</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23346</v>
+        <v>23104</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47310</v>
+        <v>48136</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0757624785975598</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05179136638651641</v>
+        <v>0.05125461462351884</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1049560451171673</v>
+        <v>0.1067882984801824</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -2287,19 +2287,19 @@
         <v>94119</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76901</v>
+        <v>76439</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>113544</v>
+        <v>114183</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09887548073379659</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08078779709276805</v>
+        <v>0.08030188357268413</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1192827731072506</v>
+        <v>0.1199536977200408</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>263771</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>239135</v>
+        <v>239338</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>288201</v>
+        <v>285716</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5263564212705089</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4771946340243851</v>
+        <v>0.4775996249928445</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.575105378755536</v>
+        <v>0.5701464857811069</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>141</v>
@@ -2337,19 +2337,19 @@
         <v>154522</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>131560</v>
+        <v>135873</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>174206</v>
+        <v>176581</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3428002861679826</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2918595854297843</v>
+        <v>0.3014286244572937</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3864690273382341</v>
+        <v>0.3917372091734972</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>384</v>
@@ -2358,19 +2358,19 @@
         <v>418294</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>386423</v>
+        <v>386579</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>451877</v>
+        <v>449838</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4394341724228694</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4059523652491485</v>
+        <v>0.4061165716838282</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4747148459267271</v>
+        <v>0.4725730396294368</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>267447</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>235633</v>
+        <v>232720</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>302390</v>
+        <v>300155</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07860206466334796</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06925190961467353</v>
+        <v>0.06839583583218252</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08887165434709192</v>
+        <v>0.08821496951629312</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>650</v>
@@ -2483,19 +2483,19 @@
         <v>703687</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>653511</v>
+        <v>656507</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>749579</v>
+        <v>753277</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1991060037986715</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1849087057957812</v>
+        <v>0.1857564880028078</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.212090805458795</v>
+        <v>0.2131372890764022</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>896</v>
@@ -2504,19 +2504,19 @@
         <v>971134</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>909151</v>
+        <v>912308</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1027237</v>
+        <v>1036696</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1399978629471803</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.131062333979243</v>
+        <v>0.1315174889417429</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1480856379334502</v>
+        <v>0.1494492260828501</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>316090</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>280308</v>
+        <v>283427</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>354735</v>
+        <v>352499</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09289813082800553</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08238194614834733</v>
+        <v>0.08329857759127145</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1042557364578244</v>
+        <v>0.103598734683879</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>484</v>
@@ -2554,19 +2554,19 @@
         <v>519016</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>475889</v>
+        <v>478498</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>558680</v>
+        <v>563511</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1468540051143728</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1346511142569038</v>
+        <v>0.1353894921334592</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1580767044259791</v>
+        <v>0.1594435012050316</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>777</v>
@@ -2575,19 +2575,19 @@
         <v>835107</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>777879</v>
+        <v>781412</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>888338</v>
+        <v>892091</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1203882195145966</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1121383232733258</v>
+        <v>0.1126475909177504</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1280619433657303</v>
+        <v>0.1286029929682146</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>515528</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>469326</v>
+        <v>472704</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>559588</v>
+        <v>563746</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1515124743483132</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1379338859959964</v>
+        <v>0.1389265119639586</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1644615379862488</v>
+        <v>0.1656837142547443</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>613</v>
@@ -2625,19 +2625,19 @@
         <v>652406</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>602682</v>
+        <v>605735</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>701547</v>
+        <v>698678</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1845960989331055</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1705268636977612</v>
+        <v>0.1713906794235611</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1985003848216307</v>
+        <v>0.1976887244904002</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1097</v>
@@ -2646,19 +2646,19 @@
         <v>1167934</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1106307</v>
+        <v>1104465</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1233917</v>
+        <v>1235232</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1683683178674611</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1594842462861339</v>
+        <v>0.1592187394879375</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1778803945897884</v>
+        <v>0.1780700106714134</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>439504</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>401100</v>
+        <v>401410</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>478692</v>
+        <v>483533</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1291691442076054</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1178821824911253</v>
+        <v>0.1179734696607222</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1406864457018235</v>
+        <v>0.1421092968873127</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>286</v>
@@ -2696,19 +2696,19 @@
         <v>305395</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>271967</v>
+        <v>274004</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>339717</v>
+        <v>342414</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08641039860135777</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07695213956719861</v>
+        <v>0.07752844289294</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09612194549713061</v>
+        <v>0.09688492789475518</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>708</v>
@@ -2717,19 +2717,19 @@
         <v>744899</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>691629</v>
+        <v>696754</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>801596</v>
+        <v>797796</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.107383903501384</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09970460996321101</v>
+        <v>0.1004434928496727</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1155573587693146</v>
+        <v>0.1150095335917501</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>1863977</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1807125</v>
+        <v>1805991</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1929307</v>
+        <v>1924782</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5478181859527279</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5311097123717885</v>
+        <v>0.5307762434283019</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5670185153484159</v>
+        <v>0.5656886962344058</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1244</v>
@@ -2767,19 +2767,19 @@
         <v>1353730</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1293384</v>
+        <v>1294071</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1406889</v>
+        <v>1416833</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3830334935524924</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3659586738298559</v>
+        <v>0.3661531848175733</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3980746795916353</v>
+        <v>0.4008884105755318</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2985</v>
@@ -2788,19 +2788,19 @@
         <v>3217707</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3132276</v>
+        <v>3135485</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3299913</v>
+        <v>3305642</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4638616961693779</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4515461204965411</v>
+        <v>0.4520087701851727</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4757124687430239</v>
+        <v>0.4765384600601302</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>69919</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55531</v>
+        <v>53775</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89310</v>
+        <v>87113</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06221346359398051</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04941122626689229</v>
+        <v>0.04784862715078961</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07946765178015104</v>
+        <v>0.07751252220290897</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>201</v>
@@ -3153,19 +3153,19 @@
         <v>215983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>190371</v>
+        <v>188192</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>245068</v>
+        <v>245981</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1718409456571624</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1514634061113008</v>
+        <v>0.1497300927098052</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.194981884982449</v>
+        <v>0.195708076060576</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>265</v>
@@ -3174,19 +3174,19 @@
         <v>285901</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>253657</v>
+        <v>254549</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>318230</v>
+        <v>320334</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1200898674061697</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1065459120799249</v>
+        <v>0.1069206200884645</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1336693211479913</v>
+        <v>0.1345528179877712</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>175729</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>150665</v>
+        <v>153319</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>203405</v>
+        <v>204524</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1563626180246953</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1340613256402728</v>
+        <v>0.1364225584127808</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1809885097518137</v>
+        <v>0.1819847077669372</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>294</v>
@@ -3224,19 +3224,19 @@
         <v>309334</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279514</v>
+        <v>279769</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>344098</v>
+        <v>341624</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2461133478074356</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2223883978155072</v>
+        <v>0.2225908675673237</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.273772991047786</v>
+        <v>0.2718045830985774</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>460</v>
@@ -3245,19 +3245,19 @@
         <v>485062</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>449110</v>
+        <v>446886</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>526841</v>
+        <v>527899</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2037453489018929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1886440342970881</v>
+        <v>0.1877099023299084</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2212939809791137</v>
+        <v>0.2217383791338024</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>166105</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>144307</v>
+        <v>144490</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>193440</v>
+        <v>194257</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1477998529064777</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1284036984460128</v>
+        <v>0.1285665446985652</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.172121781926758</v>
+        <v>0.1728491413818276</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>216</v>
@@ -3295,19 +3295,19 @@
         <v>223642</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>199558</v>
+        <v>197579</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>251686</v>
+        <v>251720</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1779351047429934</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1587727744006051</v>
+        <v>0.1571983386981412</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2002473184240065</v>
+        <v>0.2002746775524824</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>372</v>
@@ -3316,19 +3316,19 @@
         <v>389748</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>353211</v>
+        <v>353339</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>427650</v>
+        <v>425933</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1637093673042179</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1483625045802964</v>
+        <v>0.1484163739601905</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1796297083957916</v>
+        <v>0.1789087193216546</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>128039</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>107837</v>
+        <v>108041</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>149730</v>
+        <v>152716</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1139282755404876</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09595329961167028</v>
+        <v>0.09613430597395055</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1332294279333364</v>
+        <v>0.135885660552124</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -3366,19 +3366,19 @@
         <v>118131</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>99329</v>
+        <v>98123</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>141531</v>
+        <v>140322</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09398780814736098</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07902842199171303</v>
+        <v>0.07806893096436589</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1126051403887232</v>
+        <v>0.1116433011630484</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>237</v>
@@ -3387,19 +3387,19 @@
         <v>246170</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>218531</v>
+        <v>218443</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>277762</v>
+        <v>274138</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1034009650401584</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09179176722587251</v>
+        <v>0.09175457103620181</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1166710035105434</v>
+        <v>0.1151487692634669</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>584062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>549611</v>
+        <v>544791</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>618815</v>
+        <v>616102</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5196957899343588</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4890412224360438</v>
+        <v>0.4847524455065114</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5506190415453779</v>
+        <v>0.5482042539253041</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>358</v>
@@ -3437,19 +3437,19 @@
         <v>389786</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357368</v>
+        <v>356426</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>422226</v>
+        <v>425300</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3101227936450476</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.284330237786076</v>
+        <v>0.2835811455973948</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3359333358535952</v>
+        <v>0.3383791267611271</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>914</v>
@@ -3458,19 +3458,19 @@
         <v>973848</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>925659</v>
+        <v>925437</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1020842</v>
+        <v>1024503</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4090544513475612</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3888131397031844</v>
+        <v>0.3887200297826435</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4287937949874859</v>
+        <v>0.4303315436671672</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>88957</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72307</v>
+        <v>71182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108759</v>
+        <v>106483</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0981021774829421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07973982871968242</v>
+        <v>0.07849894915461965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1199399108723377</v>
+        <v>0.1174289012826627</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>193</v>
@@ -3583,19 +3583,19 @@
         <v>206637</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>183562</v>
+        <v>182368</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>236850</v>
+        <v>233816</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2061974592276217</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1831715955957443</v>
+        <v>0.1819805148624524</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2363464744524585</v>
+        <v>0.2333187323022524</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>278</v>
@@ -3604,19 +3604,19 @@
         <v>295594</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>263675</v>
+        <v>264555</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>328079</v>
+        <v>331605</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1548494586629531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1381283225006544</v>
+        <v>0.1385893062448609</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1718669503798538</v>
+        <v>0.1737138366520908</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>196721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>173880</v>
+        <v>172545</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>223664</v>
+        <v>223211</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2169438626478223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.191755148110252</v>
+        <v>0.1902829509670018</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2466562356525953</v>
+        <v>0.2461564858570857</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>256</v>
@@ -3654,19 +3654,19 @@
         <v>271099</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>244186</v>
+        <v>241223</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>302355</v>
+        <v>300708</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2705224122879823</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2436667374251527</v>
+        <v>0.2407105141917845</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.301712346322688</v>
+        <v>0.300068297967146</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>445</v>
@@ -3675,19 +3675,19 @@
         <v>467820</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>428525</v>
+        <v>428677</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>503517</v>
+        <v>503803</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2450712422389948</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2244865280373792</v>
+        <v>0.2245661365325863</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.263771532760299</v>
+        <v>0.2639213845931317</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>122618</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>103720</v>
+        <v>102786</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>145590</v>
+        <v>143785</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.135223274575851</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1143825824321725</v>
+        <v>0.1133526662344613</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1605566566147586</v>
+        <v>0.1585665798125234</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>170</v>
@@ -3725,19 +3725,19 @@
         <v>177573</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>154146</v>
+        <v>154355</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>203992</v>
+        <v>204007</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1771952590764</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.153818131535166</v>
+        <v>0.1540272435402079</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.203558136867304</v>
+        <v>0.2035729172910146</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>288</v>
@@ -3746,19 +3746,19 @@
         <v>300191</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>268952</v>
+        <v>268951</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>333588</v>
+        <v>331598</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.157257501858421</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1408927905302416</v>
+        <v>0.1408919122786308</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1747526266510256</v>
+        <v>0.1737104884274467</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>124420</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102565</v>
+        <v>103821</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144431</v>
+        <v>146561</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1372105536551777</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1131089072069683</v>
+        <v>0.1144941066300522</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1592782243354055</v>
+        <v>0.1616273117717726</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -3796,19 +3796,19 @@
         <v>97364</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79311</v>
+        <v>79111</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>120280</v>
+        <v>115009</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09715737131358862</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07914201607184188</v>
+        <v>0.07894323647697125</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1200245709934916</v>
+        <v>0.1147649054805489</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>215</v>
@@ -3817,19 +3817,19 @@
         <v>221785</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>195940</v>
+        <v>193523</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>253319</v>
+        <v>251676</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1161836488374355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1026446607520722</v>
+        <v>0.101378417866766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1327033241796192</v>
+        <v>0.1318425044375594</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>374066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>343619</v>
+        <v>344040</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>403458</v>
+        <v>404126</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4125201316382069</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3789433456050618</v>
+        <v>0.3794068382056561</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4449334851411743</v>
+        <v>0.4456697816812633</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>233</v>
@@ -3867,19 +3867,19 @@
         <v>249458</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223233</v>
+        <v>219941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>276941</v>
+        <v>276615</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2489274980944074</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2227580571461418</v>
+        <v>0.2194732316830762</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2763520522268465</v>
+        <v>0.2760263715617126</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>600</v>
@@ -3888,19 +3888,19 @@
         <v>623524</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>583264</v>
+        <v>582536</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>665600</v>
+        <v>667574</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3266381484021956</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3055477385095623</v>
+        <v>0.3051661240071495</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.348680025541738</v>
+        <v>0.3497140863983284</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>97396</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80042</v>
+        <v>78627</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119070</v>
+        <v>115610</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1189638752477849</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09776628348079346</v>
+        <v>0.09603788371151718</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1454368927986409</v>
+        <v>0.1412117469388419</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>152</v>
@@ -4013,19 +4013,19 @@
         <v>163747</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>140635</v>
+        <v>142484</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>188692</v>
+        <v>188278</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2133171068498805</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1832085614623856</v>
+        <v>0.1856163937833682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2458135392403312</v>
+        <v>0.2452731723657862</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>244</v>
@@ -4034,19 +4034,19 @@
         <v>261143</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>233082</v>
+        <v>231161</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>293095</v>
+        <v>290418</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.164621404092755</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1469316872861721</v>
+        <v>0.1457206306989557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1847634347640479</v>
+        <v>0.1830758488527688</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>183795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160703</v>
+        <v>159252</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207020</v>
+        <v>208459</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2244953855390463</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1962902385141535</v>
+        <v>0.194517717890802</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2528628396913013</v>
+        <v>0.2546206914348706</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>217</v>
@@ -4084,19 +4084,19 @@
         <v>222767</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>196240</v>
+        <v>199666</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>249385</v>
+        <v>251085</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2902029452913143</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2556456308458245</v>
+        <v>0.2601086801478579</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3248791037235488</v>
+        <v>0.3270943090895724</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>389</v>
@@ -4105,19 +4105,19 @@
         <v>406562</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>371332</v>
+        <v>372041</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>439399</v>
+        <v>442496</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2562912737538082</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2340829674720978</v>
+        <v>0.234530090894087</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2769915966473045</v>
+        <v>0.2789439569399177</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>160071</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>137223</v>
+        <v>138852</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>183313</v>
+        <v>184093</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.195518066610126</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.167609653512428</v>
+        <v>0.1696000852489078</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2239067542125986</v>
+        <v>0.2248593103972676</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>145</v>
@@ -4155,19 +4155,19 @@
         <v>149644</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>129179</v>
+        <v>127899</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>172405</v>
+        <v>172059</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1949447957629163</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.168283831555226</v>
+        <v>0.1666160943282236</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2245954727032198</v>
+        <v>0.2241445430820926</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>300</v>
@@ -4176,19 +4176,19 @@
         <v>309716</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>280793</v>
+        <v>279292</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>344036</v>
+        <v>342247</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1952406608467194</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1770080073146415</v>
+        <v>0.1760619930319735</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2168758059913241</v>
+        <v>0.2157481183470414</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>89763</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74023</v>
+        <v>72021</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>112247</v>
+        <v>109284</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.109640146840443</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0904150765285702</v>
+        <v>0.08797002456081689</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.137103466267382</v>
+        <v>0.1334841103434093</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -4226,19 +4226,19 @@
         <v>47000</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33809</v>
+        <v>34463</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62092</v>
+        <v>62558</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06122833038411538</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04404363184006185</v>
+        <v>0.04489512162969336</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08088916049287571</v>
+        <v>0.08149564529928918</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>127</v>
@@ -4247,19 +4247,19 @@
         <v>136763</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115621</v>
+        <v>114928</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>163563</v>
+        <v>160251</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08621366881991611</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07288589244775524</v>
+        <v>0.07244889666284836</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1031077135588114</v>
+        <v>0.101020259909197</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>287678</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261353</v>
+        <v>260186</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>316070</v>
+        <v>315614</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3513825257625997</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3192275905470184</v>
+        <v>0.3178029407102257</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3860618772672389</v>
+        <v>0.3855050784505892</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>169</v>
@@ -4297,19 +4297,19 @@
         <v>184465</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>161885</v>
+        <v>161017</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>211879</v>
+        <v>206953</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2403068217117736</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2108906774898951</v>
+        <v>0.2097596432535903</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2760187265564344</v>
+        <v>0.2696020663129529</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>448</v>
@@ -4318,19 +4318,19 @@
         <v>472143</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>434445</v>
+        <v>438856</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>512331</v>
+        <v>511453</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2976329924868013</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2738684484900665</v>
+        <v>0.2766493574264158</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.322966681560875</v>
+        <v>0.3224131764728964</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>73916</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60057</v>
+        <v>59123</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>92786</v>
+        <v>92263</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1478979922909416</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1201676269816108</v>
+        <v>0.118298488331758</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1856563908839503</v>
+        <v>0.1846099126086093</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>141</v>
@@ -4443,19 +4443,19 @@
         <v>150800</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>129184</v>
+        <v>131229</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>170598</v>
+        <v>173431</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3092344005154928</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2649081412519386</v>
+        <v>0.2691013151492334</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3498320240981769</v>
+        <v>0.3556417250257423</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>207</v>
@@ -4464,19 +4464,19 @@
         <v>224716</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>198315</v>
+        <v>197375</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>250425</v>
+        <v>250574</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2275761625046644</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2008393777025395</v>
+        <v>0.1998874730327071</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2536128674346156</v>
+        <v>0.2537639108722363</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>87042</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>71283</v>
+        <v>70798</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>105025</v>
+        <v>103847</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1741616342020562</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1426299587719188</v>
+        <v>0.1416592240472037</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2101453629447172</v>
+        <v>0.2077884367473163</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>104</v>
@@ -4514,19 +4514,19 @@
         <v>114569</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>96268</v>
+        <v>96027</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>136533</v>
+        <v>134958</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2349376139997522</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1974089811191319</v>
+        <v>0.1969146830954695</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2799776441865071</v>
+        <v>0.2767487831375838</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>187</v>
@@ -4535,19 +4535,19 @@
         <v>201610</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>177396</v>
+        <v>177720</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>231363</v>
+        <v>226699</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2041766749266934</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1796544065666106</v>
+        <v>0.1799824303542149</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2343076159854625</v>
+        <v>0.2295845707362822</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>82724</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>66239</v>
+        <v>66792</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>101901</v>
+        <v>102406</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1655215762697627</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.13253750696647</v>
+        <v>0.1336434553572048</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.203894240607387</v>
+        <v>0.2049038184102854</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>67</v>
@@ -4585,19 +4585,19 @@
         <v>68357</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>54223</v>
+        <v>53976</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>84673</v>
+        <v>82992</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1401738722382024</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1111918465815453</v>
+        <v>0.1106841674044454</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.173633036654933</v>
+        <v>0.1701857248781702</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>143</v>
@@ -4606,19 +4606,19 @@
         <v>151080</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>126751</v>
+        <v>128898</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>174519</v>
+        <v>177287</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1530032693446282</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1283642282147466</v>
+        <v>0.1305389069605643</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1767408035912742</v>
+        <v>0.1795435176756359</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>55067</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40796</v>
+        <v>42523</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>70943</v>
+        <v>71291</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1101840924128966</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08162797890374664</v>
+        <v>0.08508355869606264</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1419502404225288</v>
+        <v>0.1426460544602594</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -4656,19 +4656,19 @@
         <v>22723</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14064</v>
+        <v>14982</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33189</v>
+        <v>34176</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04659545749116267</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02883950350564032</v>
+        <v>0.03072268396558865</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0680576242435094</v>
+        <v>0.07008159903464806</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -4677,19 +4677,19 @@
         <v>77790</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61395</v>
+        <v>62215</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95449</v>
+        <v>97826</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07877998386288868</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06217628331614211</v>
+        <v>0.06300675769387803</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0966643745534063</v>
+        <v>0.09907145876079926</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>201027</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>179244</v>
+        <v>180615</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>225174</v>
+        <v>225389</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4022347048243429</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3586489964674818</v>
+        <v>0.3613921479850888</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4505503655106487</v>
+        <v>0.4509807805011475</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>119</v>
@@ -4727,19 +4727,19 @@
         <v>131208</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>111716</v>
+        <v>113127</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>152062</v>
+        <v>153248</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2690586557553898</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.229088688755503</v>
+        <v>0.2319810833654442</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3118230522054023</v>
+        <v>0.3142542841464427</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>307</v>
@@ -4748,19 +4748,19 @@
         <v>332235</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>302279</v>
+        <v>303238</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>363639</v>
+        <v>363508</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3364639093611252</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3061265530899824</v>
+        <v>0.3070977347680591</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3682680576057511</v>
+        <v>0.3681347931813745</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>330188</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>301244</v>
+        <v>296362</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>373251</v>
+        <v>367629</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09858964005029737</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0899473750412213</v>
+        <v>0.08848956775518613</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1114476545860054</v>
+        <v>0.1097689513569865</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>687</v>
@@ -4873,19 +4873,19 @@
         <v>737167</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>689499</v>
+        <v>690048</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>782568</v>
+        <v>789573</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2097629008045943</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1961988889162005</v>
+        <v>0.1963552389786888</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2226818754936253</v>
+        <v>0.2246751582766781</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>994</v>
@@ -4894,19 +4894,19 @@
         <v>1067355</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1012924</v>
+        <v>1006244</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1127215</v>
+        <v>1130280</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1555139915596851</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1475834008319108</v>
+        <v>0.1466101439735793</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1642355807150243</v>
+        <v>0.1646822680502652</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>643286</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>595496</v>
+        <v>594102</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>689781</v>
+        <v>689413</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1920765464360521</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1778070403998856</v>
+        <v>0.1773908052545494</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2059590567854776</v>
+        <v>0.2058491891477372</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>871</v>
@@ -4944,19 +4944,19 @@
         <v>917768</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>867372</v>
+        <v>867016</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>971836</v>
+        <v>972625</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2611534985872008</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2468130819636714</v>
+        <v>0.246711883158974</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2765387480215011</v>
+        <v>0.2767633208433731</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1481</v>
@@ -4965,19 +4965,19 @@
         <v>1561055</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1489494</v>
+        <v>1490965</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1627047</v>
+        <v>1626684</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2274462088779911</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2170198031837861</v>
+        <v>0.217234164406847</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.237061341014724</v>
+        <v>0.2370084426834558</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>531518</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>489913</v>
+        <v>494277</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>573552</v>
+        <v>578182</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1587041412769413</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1462814789375005</v>
+        <v>0.147584507069911</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1712548495704365</v>
+        <v>0.1726371079139767</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>598</v>
@@ -5015,19 +5015,19 @@
         <v>619216</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>573850</v>
+        <v>574317</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>664114</v>
+        <v>667739</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1761996507658729</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1632906966907669</v>
+        <v>0.1634235987724959</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1889756479693794</v>
+        <v>0.1900070858735383</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1103</v>
@@ -5036,19 +5036,19 @@
         <v>1150734</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1090384</v>
+        <v>1092024</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1217516</v>
+        <v>1214524</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1676624152829979</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1588692869624737</v>
+        <v>0.1591082575002385</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1773924801229744</v>
+        <v>0.1769565529913776</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>397289</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>357660</v>
+        <v>358406</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>438784</v>
+        <v>435269</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1186250419612561</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1067923208315107</v>
+        <v>0.1070151919399931</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1310147963660294</v>
+        <v>0.1299652876131823</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>277</v>
@@ -5086,19 +5086,19 @@
         <v>285218</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>253931</v>
+        <v>251804</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>319263</v>
+        <v>316212</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08115965322181382</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07225666310327815</v>
+        <v>0.07165162299120806</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09084721658108103</v>
+        <v>0.08997915333711538</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>652</v>
@@ -5107,19 +5107,19 @@
         <v>682507</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>628605</v>
+        <v>633262</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>729391</v>
+        <v>734345</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09944153557159183</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09158798952153085</v>
+        <v>0.0922664865593472</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1062725790414182</v>
+        <v>0.1069943213422195</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>1446833</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1394156</v>
+        <v>1392453</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1506184</v>
+        <v>1506445</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4320046302754531</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4162760185516357</v>
+        <v>0.4157675713772475</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4497260833933455</v>
+        <v>0.4498040255880629</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>879</v>
@@ -5157,19 +5157,19 @@
         <v>954917</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>898807</v>
+        <v>897244</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1006043</v>
+        <v>1012338</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2717242966205182</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2557580604414154</v>
+        <v>0.2553133380354092</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2862725000703497</v>
+        <v>0.2880637646200069</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2269</v>
@@ -5178,19 +5178,19 @@
         <v>2401750</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2321505</v>
+        <v>2325297</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2474577</v>
+        <v>2485828</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3499358487077341</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3382441483537364</v>
+        <v>0.3387966587608279</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3605467139767606</v>
+        <v>0.3621860666193126</v>
       </c>
     </row>
     <row r="33">
